--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H2">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I2">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J2">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.57603935464424</v>
+        <v>0.493831</v>
       </c>
       <c r="N2">
-        <v>3.57603935464424</v>
+        <v>1.481493</v>
       </c>
       <c r="O2">
-        <v>0.9613015310420293</v>
+        <v>0.1121895146192186</v>
       </c>
       <c r="P2">
-        <v>0.9613015310420293</v>
+        <v>0.1134277760249069</v>
       </c>
       <c r="Q2">
-        <v>4.238419075386801</v>
+        <v>0.6835340387156666</v>
       </c>
       <c r="R2">
-        <v>4.238419075386801</v>
+        <v>6.151806348440999</v>
       </c>
       <c r="S2">
-        <v>0.08569119459805362</v>
+        <v>0.01138294094195493</v>
       </c>
       <c r="T2">
-        <v>0.08569119459805362</v>
+        <v>0.01513196176547839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H3">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I3">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J3">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.143958210290348</v>
+        <v>3.763360333333333</v>
       </c>
       <c r="N3">
-        <v>0.143958210290348</v>
+        <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.03869846895797077</v>
+        <v>0.85496773012202</v>
       </c>
       <c r="P3">
-        <v>0.03869846895797077</v>
+        <v>0.8644042050627692</v>
       </c>
       <c r="Q3">
-        <v>0.1706231850498906</v>
+        <v>5.209038897488556</v>
       </c>
       <c r="R3">
-        <v>0.1706231850498906</v>
+        <v>46.881350077397</v>
       </c>
       <c r="S3">
-        <v>0.003449612766693103</v>
+        <v>0.0867464950916997</v>
       </c>
       <c r="T3">
-        <v>0.003449612766693103</v>
+        <v>0.1153168283759383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.36933920805411</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H4">
-        <v>2.36933920805411</v>
+        <v>4.152437</v>
       </c>
       <c r="I4">
-        <v>0.1781977427797884</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J4">
-        <v>0.1781977427797884</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.57603935464424</v>
+        <v>0.0004073333333333333</v>
       </c>
       <c r="N4">
-        <v>3.57603935464424</v>
+        <v>0.001222</v>
       </c>
       <c r="O4">
-        <v>0.9613015310420293</v>
+        <v>9.253880164447964E-05</v>
       </c>
       <c r="P4">
-        <v>0.9613015310420293</v>
+        <v>9.356017362379453E-05</v>
       </c>
       <c r="Q4">
-        <v>8.472850252503115</v>
+        <v>0.0005638086682222222</v>
       </c>
       <c r="R4">
-        <v>8.472850252503115</v>
+        <v>0.005074278014</v>
       </c>
       <c r="S4">
-        <v>0.1713017629624443</v>
+        <v>9.389145835362654E-06</v>
       </c>
       <c r="T4">
-        <v>0.1713017629624443</v>
+        <v>1.248150161857976E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.36933920805411</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H5">
-        <v>2.36933920805411</v>
+        <v>4.152437</v>
       </c>
       <c r="I5">
-        <v>0.1781977427797884</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J5">
-        <v>0.1781977427797884</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.143958210290348</v>
+        <v>0.1441585</v>
       </c>
       <c r="N5">
-        <v>0.143958210290348</v>
+        <v>0.288317</v>
       </c>
       <c r="O5">
-        <v>0.03869846895797077</v>
+        <v>0.03275021645711715</v>
       </c>
       <c r="P5">
-        <v>0.03869846895797077</v>
+        <v>0.02207445873870014</v>
       </c>
       <c r="Q5">
-        <v>0.3410858319622201</v>
+        <v>0.1995363630881667</v>
       </c>
       <c r="R5">
-        <v>0.3410858319622201</v>
+        <v>1.197218178529</v>
       </c>
       <c r="S5">
-        <v>0.006895979817344101</v>
+        <v>0.003322893240361196</v>
       </c>
       <c r="T5">
-        <v>0.006895979817344101</v>
+        <v>0.002944868332376482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.741557172907219</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H6">
-        <v>9.741557172907219</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I6">
-        <v>0.7326614498554649</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J6">
-        <v>0.7326614498554649</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.57603935464424</v>
+        <v>0.493831</v>
       </c>
       <c r="N6">
-        <v>3.57603935464424</v>
+        <v>1.481493</v>
       </c>
       <c r="O6">
-        <v>0.9613015310420293</v>
+        <v>0.1121895146192186</v>
       </c>
       <c r="P6">
-        <v>0.9613015310420293</v>
+        <v>0.1134277760249069</v>
       </c>
       <c r="Q6">
-        <v>34.8361918258331</v>
+        <v>1.213855692798667</v>
       </c>
       <c r="R6">
-        <v>34.8361918258331</v>
+        <v>10.924701235188</v>
       </c>
       <c r="S6">
-        <v>0.7043085734815314</v>
+        <v>0.02021442515012869</v>
       </c>
       <c r="T6">
-        <v>0.7043085734815314</v>
+        <v>0.02687213348840752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1801810554109116</v>
+      </c>
+      <c r="J7">
+        <v>0.2369096391566985</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N7">
+        <v>11.290081</v>
+      </c>
+      <c r="O7">
+        <v>0.85496773012202</v>
+      </c>
+      <c r="P7">
+        <v>0.8644042050627692</v>
+      </c>
+      <c r="Q7">
+        <v>9.250485215932891</v>
+      </c>
+      <c r="R7">
+        <v>83.25436694339601</v>
+      </c>
+      <c r="S7">
+        <v>0.154048987955657</v>
+      </c>
+      <c r="T7">
+        <v>0.2047856883069535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1801810554109116</v>
+      </c>
+      <c r="J8">
+        <v>0.2369096391566985</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0004073333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.001222</v>
+      </c>
+      <c r="O8">
+        <v>9.253880164447964E-05</v>
+      </c>
+      <c r="P8">
+        <v>9.356017362379453E-05</v>
+      </c>
+      <c r="Q8">
+        <v>0.001001241083555556</v>
+      </c>
+      <c r="R8">
+        <v>0.009011169752000002</v>
+      </c>
+      <c r="S8">
+        <v>1.667373894676334E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.216530697265123E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>9.741557172907219</v>
-      </c>
-      <c r="H7">
-        <v>9.741557172907219</v>
-      </c>
-      <c r="I7">
-        <v>0.7326614498554649</v>
-      </c>
-      <c r="J7">
-        <v>0.7326614498554649</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.143958210290348</v>
-      </c>
-      <c r="N7">
-        <v>0.143958210290348</v>
-      </c>
-      <c r="O7">
-        <v>0.03869846895797077</v>
-      </c>
-      <c r="P7">
-        <v>0.03869846895797077</v>
-      </c>
-      <c r="Q7">
-        <v>1.402377136052825</v>
-      </c>
-      <c r="R7">
-        <v>1.402377136052825</v>
-      </c>
-      <c r="S7">
-        <v>0.02835287637393357</v>
-      </c>
-      <c r="T7">
-        <v>0.02835287637393357</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1801810554109116</v>
+      </c>
+      <c r="J9">
+        <v>0.2369096391566985</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1441585</v>
+      </c>
+      <c r="N9">
+        <v>0.288317</v>
+      </c>
+      <c r="O9">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P9">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q9">
+        <v>0.3543471671286667</v>
+      </c>
+      <c r="R9">
+        <v>2.126083002772</v>
+      </c>
+      <c r="S9">
+        <v>0.005900968566179172</v>
+      </c>
+      <c r="T9">
+        <v>0.00522965205436488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H10">
+        <v>19.599728</v>
+      </c>
+      <c r="I10">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J10">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.493831</v>
+      </c>
+      <c r="N10">
+        <v>1.481493</v>
+      </c>
+      <c r="O10">
+        <v>0.1121895146192186</v>
+      </c>
+      <c r="P10">
+        <v>0.1134277760249069</v>
+      </c>
+      <c r="Q10">
+        <v>4.839476638983999</v>
+      </c>
+      <c r="R10">
+        <v>29.036859833904</v>
+      </c>
+      <c r="S10">
+        <v>0.08059214852713494</v>
+      </c>
+      <c r="T10">
+        <v>0.07142368077102101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H11">
+        <v>19.599728</v>
+      </c>
+      <c r="I11">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J11">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N11">
+        <v>11.290081</v>
+      </c>
+      <c r="O11">
+        <v>0.85496773012202</v>
+      </c>
+      <c r="P11">
+        <v>0.8644042050627692</v>
+      </c>
+      <c r="Q11">
+        <v>36.88041944966133</v>
+      </c>
+      <c r="R11">
+        <v>221.282516697968</v>
+      </c>
+      <c r="S11">
+        <v>0.6141722470746633</v>
+      </c>
+      <c r="T11">
+        <v>0.5443016883798775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H12">
+        <v>19.599728</v>
+      </c>
+      <c r="I12">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J12">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0004073333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.001222</v>
+      </c>
+      <c r="O12">
+        <v>9.253880164447964E-05</v>
+      </c>
+      <c r="P12">
+        <v>9.356017362379453E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.003991811269333333</v>
+      </c>
+      <c r="R12">
+        <v>0.023950867616</v>
+      </c>
+      <c r="S12">
+        <v>6.647591686235365E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.891336503256355E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H13">
+        <v>19.599728</v>
+      </c>
+      <c r="I13">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J13">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1441585</v>
+      </c>
+      <c r="N13">
+        <v>0.288317</v>
+      </c>
+      <c r="O13">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P13">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q13">
+        <v>1.412733694444</v>
+      </c>
+      <c r="R13">
+        <v>5.650934777776</v>
+      </c>
+      <c r="S13">
+        <v>0.02352635465057678</v>
+      </c>
+      <c r="T13">
+        <v>0.01389993835195878</v>
       </c>
     </row>
   </sheetData>
